--- a/docs/deliverable 2/Getana_Deliverable_2_DailyScrumReport.xlsx
+++ b/docs/deliverable 2/Getana_Deliverable_2_DailyScrumReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C58FA5-D1ED-7349-A222-A4174D96A01D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D20EE0B-8F63-264C-9DE6-A85C76A8B56B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>What they have done: Began work on implementing Maps API code calls.</t>
   </si>
   <si>
-    <t>What they will do: Complete implementation tasks, Creat configuration management plan document</t>
-  </si>
-  <si>
     <t>What impediments prevent them from progressing: Difficulty with implementation</t>
   </si>
   <si>
@@ -338,7 +335,10 @@
     <t>What they will do:Create domain model &amp; detailed design document. Complete first app release implementation.</t>
   </si>
   <si>
-    <t>What they will do: Complete sprint 2 and 3 reviews, team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
+    <t>What they will do: Complete implementation tasks, Create configuration management plan document</t>
+  </si>
+  <si>
+    <t>What they will do: Complete sprint 2 review , team member report, &amp; focus group document. Update sprint/product backlog at end of sprint. Complete first app release implementation. Create GRL &amp; UCM models document.</t>
   </si>
 </sst>
 </file>
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="107" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A57" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1991,12 +1991,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2004,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2014,7 +2014,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -2022,17 +2022,17 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -2040,17 +2040,17 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
@@ -2058,17 +2058,17 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
@@ -2076,17 +2076,17 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
